--- a/Tugas 16 (UAS)/Tugas16_Khadafi.xlsx
+++ b/Tugas 16 (UAS)/Tugas16_Khadafi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Kuliah\PROJECT DPW 2\GitHub Project\Dokumentasi-Tugas-DPW-2\Tugas 16 (UAS)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038CD90-25E3-4B92-A036-3D0D14EB670D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBAB502-C434-4F7B-9630-21C9714B49A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>URL GITHUB</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Tidak ada</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CYzacJ9PyUc/?utm_medium=copy_link</t>
   </si>
   <si>
     <r>
@@ -170,10 +173,10 @@
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>https://youtu.be/X1B6LUElcRY</t>
     </r>
@@ -183,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -225,22 +228,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -286,12 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,9 +300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,317 +620,319 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="98" customWidth="1"/>
-    <col min="4" max="4" width="77.109375" customWidth="1"/>
+    <col min="4" max="4" width="95.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4">
-        <v>10</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
